--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H2">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I2">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J2">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.42119933333333</v>
+        <v>19.92674333333333</v>
       </c>
       <c r="N2">
-        <v>73.263598</v>
+        <v>59.78023</v>
       </c>
       <c r="O2">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135736</v>
       </c>
       <c r="P2">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135735</v>
       </c>
       <c r="Q2">
-        <v>2166.720033351389</v>
+        <v>520.9771123607901</v>
       </c>
       <c r="R2">
-        <v>19500.4803001625</v>
+        <v>4688.794011247111</v>
       </c>
       <c r="S2">
-        <v>0.3136656525231462</v>
+        <v>0.1796953320838091</v>
       </c>
       <c r="T2">
-        <v>0.3136656525231462</v>
+        <v>0.179695332083809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H3">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I3">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J3">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>100.44387</v>
       </c>
       <c r="O3">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339875</v>
       </c>
       <c r="P3">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339873</v>
       </c>
       <c r="Q3">
-        <v>2970.5577025625</v>
+        <v>875.3555706785102</v>
       </c>
       <c r="R3">
-        <v>26735.0193230625</v>
+        <v>7878.20013610659</v>
       </c>
       <c r="S3">
-        <v>0.430033371081503</v>
+        <v>0.3019274863183522</v>
       </c>
       <c r="T3">
-        <v>0.4300333710815031</v>
+        <v>0.3019274863183521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H4">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I4">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J4">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.853554333333333</v>
+        <v>4.385869666666667</v>
       </c>
       <c r="N4">
-        <v>5.560663</v>
+        <v>13.157609</v>
       </c>
       <c r="O4">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243907</v>
       </c>
       <c r="P4">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243905</v>
       </c>
       <c r="Q4">
-        <v>164.4527466534722</v>
+        <v>114.666891418657</v>
       </c>
       <c r="R4">
-        <v>1480.07471988125</v>
+        <v>1032.002022767913</v>
       </c>
       <c r="S4">
-        <v>0.02380703427036596</v>
+        <v>0.03955088360623429</v>
       </c>
       <c r="T4">
-        <v>0.02380703427036597</v>
+        <v>0.03955088360623428</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.42119933333333</v>
+        <v>19.92674333333333</v>
       </c>
       <c r="N5">
-        <v>73.263598</v>
+        <v>59.78023</v>
       </c>
       <c r="O5">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135736</v>
       </c>
       <c r="P5">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135735</v>
       </c>
       <c r="Q5">
-        <v>437.5265440761</v>
+        <v>357.0045445485001</v>
       </c>
       <c r="R5">
-        <v>3937.7388966849</v>
+        <v>3213.0409009365</v>
       </c>
       <c r="S5">
-        <v>0.06333861635624176</v>
+        <v>0.1231379434259</v>
       </c>
       <c r="T5">
-        <v>0.06333861635624177</v>
+        <v>0.1231379434259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>100.44387</v>
       </c>
       <c r="O6">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339875</v>
       </c>
       <c r="P6">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339873</v>
       </c>
       <c r="Q6">
-        <v>599.8457694465</v>
+        <v>599.8457694465001</v>
       </c>
       <c r="R6">
         <v>5398.6119250185</v>
       </c>
       <c r="S6">
-        <v>0.08683679099770968</v>
+        <v>0.206898695129451</v>
       </c>
       <c r="T6">
-        <v>0.08683679099770969</v>
+        <v>0.2068986951294509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.853554333333333</v>
+        <v>4.385869666666667</v>
       </c>
       <c r="N7">
-        <v>5.560663</v>
+        <v>13.157609</v>
       </c>
       <c r="O7">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243907</v>
       </c>
       <c r="P7">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243905</v>
       </c>
       <c r="Q7">
-        <v>33.20800140284999</v>
+        <v>78.57658306755002</v>
       </c>
       <c r="R7">
-        <v>298.87201262565</v>
+        <v>707.1892476079501</v>
       </c>
       <c r="S7">
-        <v>0.004807362865844349</v>
+        <v>0.02710262092772332</v>
       </c>
       <c r="T7">
-        <v>0.00480736286584435</v>
+        <v>0.02710262092772331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H8">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I8">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J8">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.42119933333333</v>
+        <v>19.92674333333333</v>
       </c>
       <c r="N8">
-        <v>73.263598</v>
+        <v>59.78023</v>
       </c>
       <c r="O8">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135736</v>
       </c>
       <c r="P8">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135735</v>
       </c>
       <c r="Q8">
-        <v>218.8191314613251</v>
+        <v>121.6411374741411</v>
       </c>
       <c r="R8">
-        <v>1969.372183151926</v>
+        <v>1094.77023726727</v>
       </c>
       <c r="S8">
-        <v>0.03167739467853693</v>
+        <v>0.04195643930386445</v>
       </c>
       <c r="T8">
-        <v>0.03167739467853693</v>
+        <v>0.04195643930386445</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H9">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I9">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J9">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>100.44387</v>
       </c>
       <c r="O9">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339875</v>
       </c>
       <c r="P9">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339873</v>
       </c>
       <c r="Q9">
-        <v>299.99946759391</v>
+        <v>204.38373353707</v>
       </c>
       <c r="R9">
-        <v>2699.99520834519</v>
+        <v>1839.45360183363</v>
       </c>
       <c r="S9">
-        <v>0.04342948203321457</v>
+        <v>0.07049600068618425</v>
       </c>
       <c r="T9">
-        <v>0.04342948203321458</v>
+        <v>0.07049600068618424</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H10">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I10">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J10">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.853554333333333</v>
+        <v>4.385869666666667</v>
       </c>
       <c r="N10">
-        <v>5.560663</v>
+        <v>13.157609</v>
       </c>
       <c r="O10">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243907</v>
       </c>
       <c r="P10">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243905</v>
       </c>
       <c r="Q10">
-        <v>16.60824039803678</v>
+        <v>26.77317442907123</v>
       </c>
       <c r="R10">
-        <v>149.474163582331</v>
+        <v>240.958569861641</v>
       </c>
       <c r="S10">
-        <v>0.002404295193437499</v>
+        <v>0.009234598518481456</v>
       </c>
       <c r="T10">
-        <v>0.002404295193437499</v>
+        <v>0.009234598518481456</v>
       </c>
     </row>
   </sheetData>
